--- a/Code/Results/Cases/Case_2_143/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_143/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.955389319199099</v>
+        <v>1.834436176833037</v>
       </c>
       <c r="C2">
-        <v>0.09411057867613692</v>
+        <v>0.02932362838556912</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04194831241708741</v>
+        <v>0.06239476398544497</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008549233411917641</v>
+        <v>0.002607791020105874</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.679277378300441</v>
+        <v>1.324321461773508</v>
       </c>
       <c r="L2">
-        <v>0.2737211962100616</v>
+        <v>0.2466298486510681</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.530553553320487</v>
+        <v>3.810167952200473</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.738162981272552</v>
+        <v>1.787766169578248</v>
       </c>
       <c r="C3">
-        <v>0.08103835417320226</v>
+        <v>0.02551690567669596</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03847416850618046</v>
+        <v>0.06185829364868312</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008624665696566427</v>
+        <v>0.00261235509399859</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.480237451056496</v>
+        <v>1.27890035438287</v>
       </c>
       <c r="L3">
-        <v>0.2428083628619504</v>
+        <v>0.2399281671627875</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.527305126257545</v>
+        <v>3.809469029033608</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.607701205529139</v>
+        <v>1.760161441781094</v>
       </c>
       <c r="C4">
-        <v>0.0731340072338611</v>
+        <v>0.02317775130687494</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03639931711335898</v>
+        <v>0.06155810626455249</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008672261823366848</v>
+        <v>0.002615304096617995</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.360548795107462</v>
+        <v>1.251807035296622</v>
       </c>
       <c r="L4">
-        <v>0.2242365807524322</v>
+        <v>0.2359576683570168</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.527598266987326</v>
+        <v>3.809768174239593</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.555197342931507</v>
+        <v>1.749176177257425</v>
       </c>
       <c r="C5">
-        <v>0.06993869876792758</v>
+        <v>0.02222398558131999</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03556733470504092</v>
+        <v>0.06144312583019662</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008691991969415661</v>
+        <v>0.002616542835987643</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.312341363806752</v>
+        <v>1.240965817470453</v>
       </c>
       <c r="L5">
-        <v>0.2167609231842675</v>
+        <v>0.234375893155871</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.528261428863573</v>
+        <v>3.810072772250493</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.546516972788396</v>
+        <v>1.747368010421667</v>
       </c>
       <c r="C6">
-        <v>0.06940954084267048</v>
+        <v>0.02206557831810585</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03542997097720146</v>
+        <v>0.06142447735992285</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008695288684936118</v>
+        <v>0.00261675076612204</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.304368899579742</v>
+        <v>1.239177678687867</v>
       </c>
       <c r="L6">
-        <v>0.2155248953547613</v>
+        <v>0.2341154272456833</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.528403507462016</v>
+        <v>3.810134371993826</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.606990538666139</v>
+        <v>1.760012222666631</v>
       </c>
       <c r="C7">
-        <v>0.07309081602680578</v>
+        <v>0.02316489079306905</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03638804332212864</v>
+        <v>0.06155652583936799</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.000867252654112043</v>
+        <v>0.002615320652651072</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.359896444165912</v>
+        <v>1.251660019592435</v>
       </c>
       <c r="L7">
-        <v>0.2241353999868352</v>
+        <v>0.2359361893522305</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.527605049137009</v>
+        <v>3.809771543043908</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.879838768036507</v>
+        <v>1.818126017185847</v>
       </c>
       <c r="C8">
-        <v>0.08957485713304436</v>
+        <v>0.02801139342757608</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04073762932151936</v>
+        <v>0.06220372892349957</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008574984439084776</v>
+        <v>0.00260933435114246</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.610082413402836</v>
+        <v>1.308494860281456</v>
       </c>
       <c r="L8">
-        <v>0.2629711454088266</v>
+        <v>0.2442891042623074</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.528938923201395</v>
+        <v>3.809775538144251</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.441647674015996</v>
+        <v>1.94044999472203</v>
       </c>
       <c r="C9">
-        <v>0.1231135787834177</v>
+        <v>0.03750531618781849</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04978500134246744</v>
+        <v>0.06370462145329014</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008393255587464353</v>
+        <v>0.002598753171530571</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.124072339194498</v>
+        <v>1.426288999078452</v>
       </c>
       <c r="L9">
-        <v>0.342882370058291</v>
+        <v>0.2618187712697164</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.551265933694793</v>
+        <v>3.815583654044758</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.876308410572676</v>
+        <v>2.035467219018017</v>
       </c>
       <c r="C10">
-        <v>0.1488759528176189</v>
+        <v>0.04448098776195764</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05683293664742806</v>
+        <v>0.06494879307343382</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008264629712003305</v>
+        <v>0.002591677226515037</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.521148892726615</v>
+        <v>1.516750877236404</v>
       </c>
       <c r="L10">
-        <v>0.4046698388221017</v>
+        <v>0.275406250624485</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.58209107230482</v>
+        <v>3.823419489406888</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.08021480840813</v>
+        <v>2.079821624293686</v>
       </c>
       <c r="C11">
-        <v>0.1609370605593625</v>
+        <v>0.04765597956030376</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06014760300625355</v>
+        <v>0.06554557804981087</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0008206943426114257</v>
+        <v>0.002588608091820887</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.707327972008699</v>
+        <v>1.558767459013723</v>
       </c>
       <c r="L11">
-        <v>0.433645306857386</v>
+        <v>0.2817431503441412</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.599855959207616</v>
+        <v>3.827766386871303</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.158450241734442</v>
+        <v>2.096780739631924</v>
       </c>
       <c r="C12">
-        <v>0.1655627338217016</v>
+        <v>0.04885862066682023</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06142038131310912</v>
+        <v>0.06577599586443839</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0008185196222163371</v>
+        <v>0.002587467296375287</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.778750997769862</v>
+        <v>1.574803215903302</v>
       </c>
       <c r="L12">
-        <v>0.4447610719975472</v>
+        <v>0.2841652964216337</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.607179303471412</v>
+        <v>3.829525500019855</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.141553181131769</v>
+        <v>2.09312103043834</v>
       </c>
       <c r="C13">
-        <v>0.164563755197122</v>
+        <v>0.04859959375117739</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06114544968527724</v>
+        <v>0.06572617433576866</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.00081898759099388</v>
+        <v>0.002587712036496815</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.763325684866942</v>
+        <v>1.571344060094731</v>
       </c>
       <c r="L13">
-        <v>0.4423603973553014</v>
+        <v>0.2836426418982541</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.605574576890348</v>
+        <v>3.829141607510195</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.086630019215988</v>
+        <v>2.081213590015523</v>
       </c>
       <c r="C14">
-        <v>0.1613163899705086</v>
+        <v>0.04775491420666356</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06025195066391476</v>
+        <v>0.06556444591966581</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008205152451088495</v>
+        <v>0.002588513809271143</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.713184769071319</v>
+        <v>1.560084221922779</v>
       </c>
       <c r="L14">
-        <v>0.4345568199273799</v>
+        <v>0.281941970347674</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.600446149934982</v>
+        <v>3.827908841625799</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.053125085600186</v>
+        <v>2.073941189489119</v>
       </c>
       <c r="C15">
-        <v>0.1593351842891622</v>
+        <v>0.04723757072378021</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05970700945654883</v>
+        <v>0.06546595925197352</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0008214521772352751</v>
+        <v>0.002589007704425223</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.682595869301281</v>
+        <v>1.553203541277071</v>
       </c>
       <c r="L15">
-        <v>0.4297961636900851</v>
+        <v>0.2809031925480951</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.597384318998365</v>
+        <v>3.82716847381738</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.863117906715331</v>
+        <v>2.032591345993353</v>
       </c>
       <c r="C16">
-        <v>0.1480953721710137</v>
+        <v>0.0442735371751013</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05661866360076218</v>
+        <v>0.0649104115197261</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0008268414490563526</v>
+        <v>0.002591880804972818</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.509103495032264</v>
+        <v>1.514022452215642</v>
       </c>
       <c r="L16">
-        <v>0.4027952299541937</v>
+        <v>0.2749952632464669</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.581010206547262</v>
+        <v>3.823151197921845</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.748226151498898</v>
+        <v>2.00751446969025</v>
       </c>
       <c r="C17">
-        <v>0.1412938590676731</v>
+        <v>0.04245570579429625</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05475320167865405</v>
+        <v>0.06457748979104494</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0008301673004132954</v>
+        <v>0.002593681631648132</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.404175629684801</v>
+        <v>1.490208098179608</v>
       </c>
       <c r="L17">
-        <v>0.3864659135124242</v>
+        <v>0.271410925035056</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.571962909563155</v>
+        <v>3.820887485483297</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.682716100534094</v>
+        <v>1.993197300436691</v>
       </c>
       <c r="C18">
-        <v>0.1374133507485169</v>
+        <v>0.04141029391666962</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05369032160452747</v>
+        <v>0.06438890160638522</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008320881610706099</v>
+        <v>0.002594731521386214</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.344337817079293</v>
+        <v>1.476592094585357</v>
       </c>
       <c r="L18">
-        <v>0.3771541978364041</v>
+        <v>0.269363976233592</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.567107541518595</v>
+        <v>3.819659062640113</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.660630089911251</v>
+        <v>1.988368010375495</v>
       </c>
       <c r="C19">
-        <v>0.1361046308493741</v>
+        <v>0.04105635951142972</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05333212378397079</v>
+        <v>0.06432554694268333</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0008327399531996195</v>
+        <v>0.002595089421598125</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.324162498073406</v>
+        <v>1.471995909260215</v>
       </c>
       <c r="L19">
-        <v>0.3740147008239063</v>
+        <v>0.2686734312347312</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.565521776448577</v>
+        <v>3.81925576512981</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.76039639831663</v>
+        <v>2.010172931901025</v>
       </c>
       <c r="C20">
-        <v>0.1420145638020216</v>
+        <v>0.0426492001654708</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05495072593950212</v>
+        <v>0.06461262979202687</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008298124529601207</v>
+        <v>0.002593488471824081</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.415291342846899</v>
+        <v>1.492734749696439</v>
       </c>
       <c r="L20">
-        <v>0.3881957404659033</v>
+        <v>0.2717909653034383</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.572889553250064</v>
+        <v>3.821120839905888</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.102733455758937</v>
+        <v>2.08470666442139</v>
       </c>
       <c r="C21">
-        <v>0.1622685554466159</v>
+        <v>0.04800300707665883</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06051389882681946</v>
+        <v>0.06561182930331455</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0008200662902271487</v>
+        <v>0.002588277728806924</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.727886318186137</v>
+        <v>1.56338811230674</v>
       </c>
       <c r="L21">
-        <v>0.4368448697557739</v>
+        <v>0.2824408874984385</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.601935816461634</v>
+        <v>3.828267862721844</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.332491796914098</v>
+        <v>2.134369470329602</v>
       </c>
       <c r="C22">
-        <v>0.1758512474597893</v>
+        <v>0.05150405849049378</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06425334251323633</v>
+        <v>0.06629067496988839</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0008137521692503775</v>
+        <v>0.002584997001358508</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.937622012136444</v>
+        <v>1.610292991045725</v>
       </c>
       <c r="L22">
-        <v>0.4694858627792371</v>
+        <v>0.2895324128366212</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.624426281788317</v>
+        <v>3.8335979782903</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.209266633326138</v>
+        <v>2.10777634176452</v>
       </c>
       <c r="C23">
-        <v>0.1685669179788931</v>
+        <v>0.04963526490865888</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06224733937322213</v>
+        <v>0.06592600095524404</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307915566</v>
       </c>
       <c r="G23">
-        <v>0.0008171178251534804</v>
+        <v>0.002586736606439944</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.825139953483955</v>
+        <v>1.585192085103216</v>
       </c>
       <c r="L23">
-        <v>0.4519806342479029</v>
+        <v>0.2857355007445079</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.612080763953117</v>
+        <v>3.830692705934041</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.754892548986788</v>
+        <v>2.008970730118904</v>
       </c>
       <c r="C24">
-        <v>0.1416886411434177</v>
+        <v>0.04256172235393763</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0548613954698034</v>
+        <v>0.06459673423584178</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902313</v>
       </c>
       <c r="G24">
-        <v>0.0008299728519421956</v>
+        <v>0.002593575754365893</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.410264422371142</v>
+        <v>1.491592216399312</v>
       </c>
       <c r="L24">
-        <v>0.3874134496493298</v>
+        <v>0.2716191063238682</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.572469544091092</v>
+        <v>3.821015112957042</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.286256264447729</v>
+        <v>1.906457948726597</v>
       </c>
       <c r="C25">
-        <v>0.1138736494469015</v>
+        <v>0.03493735427075251</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04727371115061274</v>
+        <v>0.06327376259238804</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.000844148655387794</v>
+        <v>0.002601492510990775</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.982017315155503</v>
+        <v>1.393738291804794</v>
       </c>
       <c r="L25">
-        <v>0.3207857233242493</v>
+        <v>0.2569526793201646</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.542882513702864</v>
+        <v>3.81338809684172</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_143/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_143/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.834436176833037</v>
+        <v>1.955389319199043</v>
       </c>
       <c r="C2">
-        <v>0.02932362838556912</v>
+        <v>0.09411057867637851</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06239476398544497</v>
+        <v>0.04194831241709096</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002607791020105874</v>
+        <v>0.0008549233410800881</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.324321461773508</v>
+        <v>1.679277378300526</v>
       </c>
       <c r="L2">
-        <v>0.2466298486510681</v>
+        <v>0.2737211962100474</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.810167952200473</v>
+        <v>2.530553553320416</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.787766169578248</v>
+        <v>1.738162981272666</v>
       </c>
       <c r="C3">
-        <v>0.02551690567669596</v>
+        <v>0.0810383541733728</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06185829364868312</v>
+        <v>0.03847416850614849</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.00261235509399859</v>
+        <v>0.0008624665695764477</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.27890035438287</v>
+        <v>1.480237451056468</v>
       </c>
       <c r="L3">
-        <v>0.2399281671627875</v>
+        <v>0.242808362861922</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.809469029033608</v>
+        <v>2.52730512625763</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.760161441781094</v>
+        <v>1.607701205529025</v>
       </c>
       <c r="C4">
-        <v>0.02317775130687494</v>
+        <v>0.07313400723397478</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06155810626455249</v>
+        <v>0.03639931711335898</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002615304096617995</v>
+        <v>0.0008672261822721559</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.251807035296622</v>
+        <v>1.360548795107576</v>
       </c>
       <c r="L4">
-        <v>0.2359576683570168</v>
+        <v>0.2242365807523896</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.809768174239593</v>
+        <v>2.527598266987354</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.749176177257425</v>
+        <v>1.555197342931478</v>
       </c>
       <c r="C5">
-        <v>0.02222398558131999</v>
+        <v>0.06993869876805547</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06144312583019662</v>
+        <v>0.03556733470507822</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002616542835987643</v>
+        <v>0.0008691991969874585</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.240965817470453</v>
+        <v>1.312341363806667</v>
       </c>
       <c r="L5">
-        <v>0.234375893155871</v>
+        <v>0.2167609231843244</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.810072772250493</v>
+        <v>2.528261428863644</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.747368010421667</v>
+        <v>1.546516972788226</v>
       </c>
       <c r="C6">
-        <v>0.02206557831810585</v>
+        <v>0.06940954084254258</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06142447735992285</v>
+        <v>0.03542997097717837</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.00261675076612204</v>
+        <v>0.0008695288684887345</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.239177678687867</v>
+        <v>1.304368899579742</v>
       </c>
       <c r="L6">
-        <v>0.2341154272456833</v>
+        <v>0.2155248953547471</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.810134371993826</v>
+        <v>2.528403507462031</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.760012222666631</v>
+        <v>1.606990538666452</v>
       </c>
       <c r="C7">
-        <v>0.02316489079306905</v>
+        <v>0.07309081602681999</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06155652583936799</v>
+        <v>0.03638804332212686</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002615320652651072</v>
+        <v>0.0008672526541889641</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.251660019592435</v>
+        <v>1.359896444165912</v>
       </c>
       <c r="L7">
-        <v>0.2359361893522305</v>
+        <v>0.2241353999867499</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.809771543043908</v>
+        <v>2.52760504913698</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.818126017185847</v>
+        <v>1.879838768036478</v>
       </c>
       <c r="C8">
-        <v>0.02801139342757608</v>
+        <v>0.08957485713344226</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06220372892349957</v>
+        <v>0.0407376293214945</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.00260933435114246</v>
+        <v>0.000857498443970055</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.308494860281456</v>
+        <v>1.610082413402836</v>
       </c>
       <c r="L8">
-        <v>0.2442891042623074</v>
+        <v>0.2629711454087982</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.809775538144251</v>
+        <v>2.528938923201466</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.94044999472203</v>
+        <v>2.441647674015883</v>
       </c>
       <c r="C9">
-        <v>0.03750531618781849</v>
+        <v>0.1231135787838724</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06370462145329014</v>
+        <v>0.04978500134246389</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002598753171530571</v>
+        <v>0.0008393255588047462</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.426288999078452</v>
+        <v>2.12407233919447</v>
       </c>
       <c r="L9">
-        <v>0.2618187712697164</v>
+        <v>0.3428823700583479</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.815583654044758</v>
+        <v>2.551265933694737</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.035467219018017</v>
+        <v>2.876308410572733</v>
       </c>
       <c r="C10">
-        <v>0.04448098776195764</v>
+        <v>0.1488759528180879</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06494879307343382</v>
+        <v>0.05683293664739608</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002591677226515037</v>
+        <v>0.0008264629712001084</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.516750877236404</v>
+        <v>2.521148892726643</v>
       </c>
       <c r="L10">
-        <v>0.275406250624485</v>
+        <v>0.4046698388221159</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.823419489406888</v>
+        <v>2.58209107230482</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.079821624293686</v>
+        <v>3.080214808408016</v>
       </c>
       <c r="C11">
-        <v>0.04765597956030376</v>
+        <v>0.1609370605596183</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06554557804981087</v>
+        <v>0.06014760300625355</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002588608091820887</v>
+        <v>0.0008206943425524061</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.558767459013723</v>
+        <v>2.70732797200867</v>
       </c>
       <c r="L11">
-        <v>0.2817431503441412</v>
+        <v>0.4336453068573292</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.827766386871303</v>
+        <v>2.599855959207645</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.096780739631924</v>
+        <v>3.158450241734499</v>
       </c>
       <c r="C12">
-        <v>0.04885862066682023</v>
+        <v>0.1655627338219574</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06577599586443839</v>
+        <v>0.06142038131316951</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002587467296375287</v>
+        <v>0.000818519622217576</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.574803215903302</v>
+        <v>2.778750997769862</v>
       </c>
       <c r="L12">
-        <v>0.2841652964216337</v>
+        <v>0.4447610719975472</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.829525500019855</v>
+        <v>2.60717930347144</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.09312103043834</v>
+        <v>3.141553181131826</v>
       </c>
       <c r="C13">
-        <v>0.04859959375117739</v>
+        <v>0.1645637551971504</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06572617433576866</v>
+        <v>0.06114544968531987</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002587712036496815</v>
+        <v>0.0008189875910505621</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.571344060094731</v>
+        <v>2.7633256848668</v>
       </c>
       <c r="L13">
-        <v>0.2836426418982541</v>
+        <v>0.4423603973552872</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.829141607510195</v>
+        <v>2.605574576890348</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.081213590015523</v>
+        <v>3.086630019215988</v>
       </c>
       <c r="C14">
-        <v>0.04775491420666356</v>
+        <v>0.1613163899705512</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06556444591966581</v>
+        <v>0.06025195066391831</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002588513809271143</v>
+        <v>0.000820515245168744</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.560084221922779</v>
+        <v>2.713184769071233</v>
       </c>
       <c r="L14">
-        <v>0.281941970347674</v>
+        <v>0.4345568199272378</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.827908841625799</v>
+        <v>2.600446149934982</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.073941189489119</v>
+        <v>3.053125085600129</v>
       </c>
       <c r="C15">
-        <v>0.04723757072378021</v>
+        <v>0.1593351842889206</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06546595925197352</v>
+        <v>0.05970700945654883</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002589007704425223</v>
+        <v>0.0008214521771730956</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.553203541277071</v>
+        <v>2.682595869301281</v>
       </c>
       <c r="L15">
-        <v>0.2809031925480951</v>
+        <v>0.4297961636900993</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.82716847381738</v>
+        <v>2.597384318998394</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.032591345993353</v>
+        <v>2.863117906715274</v>
       </c>
       <c r="C16">
-        <v>0.0442735371751013</v>
+        <v>0.1480953721707721</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0649104115197261</v>
+        <v>0.05661866360073731</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002591880804972818</v>
+        <v>0.000826841449118755</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.514022452215642</v>
+        <v>2.509103495032321</v>
       </c>
       <c r="L16">
-        <v>0.2749952632464669</v>
+        <v>0.4027952299539805</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.823151197921845</v>
+        <v>2.58101020654729</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.00751446969025</v>
+        <v>2.748226151499068</v>
       </c>
       <c r="C17">
-        <v>0.04245570579429625</v>
+        <v>0.1412938590681279</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06457748979104494</v>
+        <v>0.05475320167865405</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002593681631648132</v>
+        <v>0.0008301673003538985</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.490208098179608</v>
+        <v>2.404175629684858</v>
       </c>
       <c r="L17">
-        <v>0.271410925035056</v>
+        <v>0.38646591351241</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.820887485483297</v>
+        <v>2.571962909563183</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.993197300436691</v>
+        <v>2.682716100534265</v>
       </c>
       <c r="C18">
-        <v>0.04141029391666962</v>
+        <v>0.1374133507485169</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06438890160638522</v>
+        <v>0.05369032160455944</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002594731521386214</v>
+        <v>0.0008320881610109963</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.476592094585357</v>
+        <v>2.344337817079293</v>
       </c>
       <c r="L18">
-        <v>0.269363976233592</v>
+        <v>0.3771541978363757</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.819659062640113</v>
+        <v>2.567107541518652</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.988368010375495</v>
+        <v>2.660630089911479</v>
       </c>
       <c r="C19">
-        <v>0.04105635951142972</v>
+        <v>0.1361046308493314</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06432554694268333</v>
+        <v>0.05333212378393171</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002595089421598125</v>
+        <v>0.0008327399532559734</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.471995909260215</v>
+        <v>2.324162498073463</v>
       </c>
       <c r="L19">
-        <v>0.2686734312347312</v>
+        <v>0.3740147008239916</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.81925576512981</v>
+        <v>2.565521776448634</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.010172931901025</v>
+        <v>2.76039639831663</v>
       </c>
       <c r="C20">
-        <v>0.0426492001654708</v>
+        <v>0.1420145638020074</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06461262979202687</v>
+        <v>0.05495072593946659</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002593488471824081</v>
+        <v>0.000829812453021532</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.492734749696439</v>
+        <v>2.415291342846814</v>
       </c>
       <c r="L20">
-        <v>0.2717909653034383</v>
+        <v>0.388195740465747</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.821120839905888</v>
+        <v>2.572889553250036</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.08470666442139</v>
+        <v>3.102733455758823</v>
       </c>
       <c r="C21">
-        <v>0.04800300707665883</v>
+        <v>0.1622685554466443</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06561182930331455</v>
+        <v>0.06051389882679814</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002588277728806924</v>
+        <v>0.0008200662901685085</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.56338811230674</v>
+        <v>2.72788631818608</v>
       </c>
       <c r="L21">
-        <v>0.2824408874984385</v>
+        <v>0.4368448697558307</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.828267862721844</v>
+        <v>2.601935816461605</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.134369470329602</v>
+        <v>3.332491796914098</v>
       </c>
       <c r="C22">
-        <v>0.05150405849049378</v>
+        <v>0.1758512474597325</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06629067496988839</v>
+        <v>0.06425334251319725</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002584997001358508</v>
+        <v>0.0008137521692480234</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.610292991045725</v>
+        <v>2.937622012136444</v>
       </c>
       <c r="L22">
-        <v>0.2895324128366212</v>
+        <v>0.4694858627792087</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.8335979782903</v>
+        <v>2.624426281788317</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.10777634176452</v>
+        <v>3.209266633326251</v>
       </c>
       <c r="C23">
-        <v>0.04963526490865888</v>
+        <v>0.1685669179788931</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06592600095524404</v>
+        <v>0.06224733937329674</v>
       </c>
       <c r="F23">
-        <v>0.7472568307915566</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002586736606439944</v>
+        <v>0.0008171178251585246</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.585192085103216</v>
+        <v>2.825139953483983</v>
       </c>
       <c r="L23">
-        <v>0.2857355007445079</v>
+        <v>0.4519806342479455</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.830692705934041</v>
+        <v>2.612080763953145</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.008970730118904</v>
+        <v>2.754892548986675</v>
       </c>
       <c r="C24">
-        <v>0.04256172235393763</v>
+        <v>0.1416886411429061</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06459673423584178</v>
+        <v>0.05486139546979629</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902313</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002593575754365893</v>
+        <v>0.0008299728518822711</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.491592216399312</v>
+        <v>2.410264422371171</v>
       </c>
       <c r="L24">
-        <v>0.2716191063238682</v>
+        <v>0.3874134496492019</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.821015112957042</v>
+        <v>2.572469544091092</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.906457948726597</v>
+        <v>2.286256264447729</v>
       </c>
       <c r="C25">
-        <v>0.03493735427075251</v>
+        <v>0.1138736494473136</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06327376259238804</v>
+        <v>0.04727371115057011</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002601492510990775</v>
+        <v>0.0008441486553242814</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.393738291804794</v>
+        <v>1.982017315155389</v>
       </c>
       <c r="L25">
-        <v>0.2569526793201646</v>
+        <v>0.3207857233242066</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.81338809684172</v>
+        <v>2.542882513702793</v>
       </c>
       <c r="O25">
         <v>0</v>
